--- a/data/ExcelData/RangerSuiteData.xlsx
+++ b/data/ExcelData/RangerSuiteData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -74,6 +74,21 @@
   </si>
   <si>
     <t xml:space="preserve">pass1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoginAndLogoutUserAdminPageNegative2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo123gin</t>
   </si>
 </sst>
 </file>
@@ -83,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -107,18 +122,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,14 +143,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99FFFF"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66FFFF"/>
-        <bgColor rgb="FF99FFFF"/>
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -185,7 +189,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -199,18 +203,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -244,7 +236,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FF99FFFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -260,8 +252,8 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF66FFFF"/>
+      <rgbColor rgb="FFFFFF66"/>
+      <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -291,21 +283,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.6377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.7908163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -335,10 +327,10 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -355,13 +347,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -373,12 +365,34 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://dev.ranger9dot5.xpms.ai"/>
     <hyperlink ref="C3" r:id="rId2" display="http://dev.ranger9dot5.xpms.ai"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://dev.ranger9dot5.xpms.ai"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/ExcelData/RangerSuiteData.xlsx
+++ b/data/ExcelData/RangerSuiteData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" state="visible" r:id="rId2"/>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">LoginAndLogoutUserAdminPage</t>
   </si>
   <si>
-    <t xml:space="preserve">http://dev.ranger9dot5.xpms.ai</t>
+    <t xml:space="preserve">http://dev.ranger.xpms.ai</t>
   </si>
   <si>
     <t xml:space="preserve">admin</t>
@@ -286,18 +286,15 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.7908163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.6938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.3877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -390,9 +387,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://dev.ranger9dot5.xpms.ai"/>
-    <hyperlink ref="C3" r:id="rId2" display="http://dev.ranger9dot5.xpms.ai"/>
-    <hyperlink ref="C4" r:id="rId3" display="http://dev.ranger9dot5.xpms.ai"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://dev.ranger.xpms.ai"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://dev.ranger.xpms.ai"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://dev.ranger.xpms.ai"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
